--- a/output/inference_results/test_sheets/batch_004/test_sheet (46).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (46).xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>白细胞数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4--1010^9/L</t>
+          <t>4-10</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>红细胞数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.5--5.5 10~12/L</t>
+          <t>3.5-5.5</t>
         </is>
       </c>
     </row>
@@ -500,12 +500,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>93.00←</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>110--160g/L</t>
+          <t>110-160</t>
         </is>
       </c>
     </row>
@@ -522,12 +522,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31.30←</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36--50%</t>
+          <t>36-50</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>67.50←86--100 fL</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>67.50←86--100 fL</t>
+          <t>86-100</t>
         </is>
       </c>
     </row>
@@ -561,19 +561,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>平均红细胞血红蛋白含量20.00426--31pg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平均红细胞血红蛋白含量20.00426--31pg</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>平均红细胞血红蛋白含量20.00426--31pg</t>
-        </is>
-      </c>
+          <t>RDW-CV</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -583,19 +575,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>平均红细胞血红蛋白浓度297.00↓310--370g/L</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>平均红细胞血红蛋白浓度297.00↓310--370g/L</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>平均红细胞血红蛋白浓度297.00↓310--370g/L</t>
-        </is>
-      </c>
+          <t>RDW-CV</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -605,57 +589,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>血小板数</t>
+          <t>血小板计数</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>264.00100--30010^9/L</t>
+          <t>264.00100-300</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RDW-SL红细胞体积分布宽度-SD41.20</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RDW-SL红细胞体积分布宽度-SD41.20</t>
+          <t>RDW-SL红细胞体积分布宽度-SD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RDW-SL红细胞体积分布宽度-SD41.20</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>37--50 fL</t>
+          <t>37-50</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RDW-CV红细胞体积分布宽度-CV17.30↑</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RDW-CV红细胞体积分布宽度-CV17.30↑</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RDW-CV红细胞体积分布宽度-CV17.30↑</t>
+          <t>红细胞体积分布宽度-CV17.30↑</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12--14.3%</t>
+          <t>12-14.3</t>
         </is>
       </c>
     </row>
@@ -667,17 +643,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>血小板体积分布宽度</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9--17fl</t>
+          <t>9-17</t>
         </is>
       </c>
     </row>
@@ -694,12 +670,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9--13fl</t>
+          <t>9-13</t>
         </is>
       </c>
     </row>
@@ -711,17 +687,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>大血小板比率</t>
+          <t>大型血小板比率</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13--43%</t>
+          <t>13-43</t>
         </is>
       </c>
     </row>
@@ -743,7 +719,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.17——0.39%</t>
+          <t>0.17-0.39</t>
         </is>
       </c>
     </row>
@@ -751,7 +727,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RBCDISCRI</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -779,19 +755,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2--7.710^9/L</t>
+          <t>2-7.7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LYMPH#淋巴细胞绝对值</t>
+          <t>LYMPH#</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LYMPH#淋巴细胞绝对值</t>
+          <t>淋巴细胞绝对值</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -801,7 +777,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.8--410^9/L</t>
+          <t>0.8-4</t>
         </is>
       </c>
     </row>
@@ -818,12 +794,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.11↑</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.25--0.95 10^9/L</t>
+          <t>0.25-0.95</t>
         </is>
       </c>
     </row>
@@ -835,13 +811,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞绝对值0.07</t>
+          <t>嗜酸性粒细胞绝对值</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.01--0.59 10^9/L</t>
+          <t>0.01-0.59</t>
         </is>
       </c>
     </row>
@@ -853,13 +829,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞绝对值0.01</t>
+          <t>嗜碱性粒细胞绝对值</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.01--0.07 10^9/L</t>
+          <t>0.01-0.07</t>
         </is>
       </c>
     </row>
@@ -871,39 +847,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>中性粒细胞百分比</t>
+          <t>中性粒细胞百分率</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>44--75%</t>
+          <t>44-75</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LYMPH%淋巴细胞百分比</t>
+          <t>LYMPH%淋巴细胞百分</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LYMPH%淋巴细胞百分比</t>
+          <t>淋巴细胞百分率</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>34.10</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20--40%</t>
+          <t>20-40</t>
         </is>
       </c>
     </row>
@@ -915,17 +891,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>单核细胞百分比</t>
+          <t>单核细胞百分率</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17.60↑</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.2--15.2%</t>
+          <t>4.2-15.2</t>
         </is>
       </c>
     </row>
@@ -937,17 +913,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞百分比1.10</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嗜酸性粒细胞百分比1.10</t>
-        </is>
-      </c>
+          <t>嗜酸性粒细胞百分率</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.2--7.6%</t>
+          <t>0.2-7.6</t>
         </is>
       </c>
     </row>
@@ -959,13 +931,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞百分比0.20</t>
+          <t>嗜碱性粒细胞百分率</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.1—-1.2%</t>
+          <t>0.1-1.2</t>
         </is>
       </c>
     </row>
@@ -973,7 +945,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLTDISCRI</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
